--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.18501572505</v>
+        <v>284.3518547024705</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.9999788467959</v>
+        <v>389.0627523223888</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.5052440236351</v>
+        <v>351.9311492937417</v>
       </c>
       <c r="AD2" t="n">
-        <v>241185.01572505</v>
+        <v>284351.8547024705</v>
       </c>
       <c r="AE2" t="n">
-        <v>329999.9788467959</v>
+        <v>389062.7523223888</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.078464859973019e-06</v>
+        <v>4.438113239045887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.873046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>298505.2440236351</v>
+        <v>351931.1492937417</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.0797739181842</v>
+        <v>173.9799668131854</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.6092794933313</v>
+        <v>238.0470660481214</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.2725342224551</v>
+        <v>215.3281881657132</v>
       </c>
       <c r="AD3" t="n">
-        <v>148079.7739181842</v>
+        <v>173979.9668131854</v>
       </c>
       <c r="AE3" t="n">
-        <v>202609.2794933313</v>
+        <v>238047.0660481214</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.286714700835292e-06</v>
+        <v>6.180004038102446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.08984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>183272.5342224551</v>
+        <v>215328.1881657132</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.5371992229493</v>
+        <v>205.1216420969404</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.7047636638619</v>
+        <v>280.656480045084</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.3048704300554</v>
+        <v>253.8710194935074</v>
       </c>
       <c r="AD2" t="n">
-        <v>171537.1992229493</v>
+        <v>205121.6420969404</v>
       </c>
       <c r="AE2" t="n">
-        <v>234704.7636638619</v>
+        <v>280656.480045084</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.872513290212669e-06</v>
+        <v>5.669213776976419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.118489583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>212304.8704300554</v>
+        <v>253871.0194935074</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.056177385889</v>
+        <v>177.5552794053084</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.1040172092966</v>
+        <v>242.9389664683212</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2926864441228</v>
+        <v>219.7532124756359</v>
       </c>
       <c r="AD3" t="n">
-        <v>144056.177385889</v>
+        <v>177555.2794053084</v>
       </c>
       <c r="AE3" t="n">
-        <v>197104.0172092966</v>
+        <v>242938.9664683212</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.30270669058697e-06</v>
+        <v>6.299000731699143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.307942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178292.6864441228</v>
+        <v>219753.2124756359</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.6862774252323</v>
+        <v>192.7555218707424</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.2262978682346</v>
+        <v>263.7366087968873</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.1127704928129</v>
+        <v>238.5659570100447</v>
       </c>
       <c r="AD2" t="n">
-        <v>161686.2774252323</v>
+        <v>192755.5218707424</v>
       </c>
       <c r="AE2" t="n">
-        <v>221226.2978682346</v>
+        <v>263736.6087968873</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.891997679297796e-06</v>
+        <v>6.021400810492716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.013671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>200112.7704928129</v>
+        <v>238565.9570100447</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.2452932024445</v>
+        <v>181.2459039034018</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.2039943971373</v>
+        <v>247.9886417254717</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.7150517740388</v>
+        <v>224.3209538135094</v>
       </c>
       <c r="AD2" t="n">
-        <v>149245.2932024445</v>
+        <v>181245.9039034018</v>
       </c>
       <c r="AE2" t="n">
-        <v>204203.9943971373</v>
+        <v>247988.6417254717</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.167323540112562e-06</v>
+        <v>6.298050930707764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.053385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>184715.0517740388</v>
+        <v>224320.9538135094</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.5902133268505</v>
+        <v>215.2990201665352</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.9867646009509</v>
+        <v>294.5816177141287</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.7964488215727</v>
+        <v>266.4671615674764</v>
       </c>
       <c r="AD2" t="n">
-        <v>177590.2133268506</v>
+        <v>215299.0201665352</v>
       </c>
       <c r="AE2" t="n">
-        <v>242986.7646009509</v>
+        <v>294581.6177141287</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.552007302404747e-06</v>
+        <v>5.613904883059675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25716145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>219796.4488215726</v>
+        <v>266467.1615674763</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.1625121896303</v>
+        <v>219.1445836539628</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.3475179712497</v>
+        <v>299.843287331912</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.1683864316221</v>
+        <v>271.2266648217397</v>
       </c>
       <c r="AD2" t="n">
-        <v>185162.5121896304</v>
+        <v>219144.5836539628</v>
       </c>
       <c r="AE2" t="n">
-        <v>253347.5179712497</v>
+        <v>299843.287331912</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.649257582990149e-06</v>
+        <v>5.320202594936644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.538411458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>229168.3864316221</v>
+        <v>271226.6648217397</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.0170551945899</v>
+        <v>170.4396926604616</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.4187326180977</v>
+        <v>233.2031067664946</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.481927259523</v>
+        <v>210.9465295593837</v>
       </c>
       <c r="AD3" t="n">
-        <v>145017.0551945899</v>
+        <v>170439.6926604616</v>
       </c>
       <c r="AE3" t="n">
-        <v>198418.7326180977</v>
+        <v>233203.1067664946</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.302151641313449e-06</v>
+        <v>6.272047890675998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.242838541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>179481.927259523</v>
+        <v>210946.5295593837</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.0920772443901</v>
+        <v>238.5336569300601</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.5653428237729</v>
+        <v>326.3722727737979</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.2201592280493</v>
+        <v>295.2237611267254</v>
       </c>
       <c r="AD2" t="n">
-        <v>194092.0772443902</v>
+        <v>238533.6569300602</v>
       </c>
       <c r="AE2" t="n">
-        <v>265565.3428237729</v>
+        <v>326372.2727737979</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.278575688576231e-06</v>
+        <v>5.253048382915423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.37369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>240220.1592280493</v>
+        <v>295223.7611267254</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.6677235457272</v>
+        <v>175.6005748336184</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.204273410928</v>
+        <v>240.2644534378568</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.5742515275627</v>
+        <v>217.3339512150956</v>
       </c>
       <c r="AD2" t="n">
-        <v>142667.7235457272</v>
+        <v>175600.5748336184</v>
       </c>
       <c r="AE2" t="n">
-        <v>195204.273410928</v>
+        <v>240264.4534378567</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.241657475256842e-06</v>
+        <v>6.298196246688495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>176574.2515275627</v>
+        <v>217333.9512150956</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.0752493024478</v>
+        <v>175.008100590339</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.3936240131546</v>
+        <v>239.4538040400833</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.840969370559</v>
+        <v>216.6006690580918</v>
       </c>
       <c r="AD3" t="n">
-        <v>142075.2493024478</v>
+        <v>175008.100590339</v>
       </c>
       <c r="AE3" t="n">
-        <v>194393.6240131546</v>
+        <v>239453.8040400833</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.263649927913369e-06</v>
+        <v>6.33085159040373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>175840.9693705589</v>
+        <v>216600.6690580918</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.4559326748261</v>
+        <v>186.8899571614124</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.96517708355</v>
+        <v>255.7110843911343</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.9263952707328</v>
+        <v>231.3063773896799</v>
       </c>
       <c r="AD2" t="n">
-        <v>153455.9326748261</v>
+        <v>186889.9571614124</v>
       </c>
       <c r="AE2" t="n">
-        <v>209965.17708355</v>
+        <v>255711.0843911343</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048823172689109e-06</v>
+        <v>5.953561583656768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>189926.3952707328</v>
+        <v>231306.3773896799</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.9629603515629</v>
+        <v>176.2263926375571</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.6082294336008</v>
+        <v>241.1207249663381</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.9396545543876</v>
+        <v>218.1085013906836</v>
       </c>
       <c r="AD3" t="n">
-        <v>142962.9603515629</v>
+        <v>176226.3926375571</v>
       </c>
       <c r="AE3" t="n">
-        <v>195608.2294336008</v>
+        <v>241120.7249663381</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303111693685453e-06</v>
+        <v>6.327478226887998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.376302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>176939.6545543876</v>
+        <v>218108.5013906836</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.5829069721693</v>
+        <v>266.3222908132258</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.9159971008847</v>
+        <v>364.3939076009025</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.7198036934652</v>
+        <v>329.616664489533</v>
       </c>
       <c r="AD2" t="n">
-        <v>223582.9069721693</v>
+        <v>266322.2908132258</v>
       </c>
       <c r="AE2" t="n">
-        <v>305915.9971008847</v>
+        <v>364393.9076009025</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.261653620958096e-06</v>
+        <v>4.718870785067963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.391276041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>276719.8036934652</v>
+        <v>329616.6644895331</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8522121999995</v>
+        <v>172.5982873335377</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.929675394311</v>
+        <v>236.1565912286719</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7532291813056</v>
+        <v>213.6181376097332</v>
       </c>
       <c r="AD3" t="n">
-        <v>146852.2121999995</v>
+        <v>172598.2873335377</v>
       </c>
       <c r="AE3" t="n">
-        <v>200929.675394311</v>
+        <v>236156.5912286719</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.297831200285465e-06</v>
+        <v>6.217984018861951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>181753.2291813056</v>
+        <v>213618.1376097332</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.2560320966118</v>
+        <v>173.6392690294071</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.272734890818</v>
+        <v>237.5809083098309</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.8270563328801</v>
+        <v>214.9065198677084</v>
       </c>
       <c r="AD2" t="n">
-        <v>141256.0320966119</v>
+        <v>173639.2690294071</v>
       </c>
       <c r="AE2" t="n">
-        <v>193272.734890818</v>
+        <v>237580.9083098309</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.20629243735888e-06</v>
+        <v>6.316524635312816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.880859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>174827.05633288</v>
+        <v>214906.5198677084</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.3490845945133</v>
+        <v>190.5547037003433</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.0824945924902</v>
+        <v>260.7253522829037</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.3188319507485</v>
+        <v>235.8420905914296</v>
       </c>
       <c r="AD2" t="n">
-        <v>151349.0845945133</v>
+        <v>190554.7037003433</v>
       </c>
       <c r="AE2" t="n">
-        <v>207082.4945924902</v>
+        <v>260725.3522829037</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.01258759608361e-06</v>
+        <v>6.154293180096382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.603515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>187318.8319507485</v>
+        <v>235842.0905914296</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.2028066505603</v>
+        <v>202.5441071010168</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.6695241757604</v>
+        <v>277.1297829508446</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.2273801141481</v>
+        <v>250.6809054201905</v>
       </c>
       <c r="AD2" t="n">
-        <v>164202.8066505603</v>
+        <v>202544.1071010168</v>
       </c>
       <c r="AE2" t="n">
-        <v>224669.5241757604</v>
+        <v>277129.7829508446</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.757739661780934e-06</v>
+        <v>5.871394098744237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>203227.3801141481</v>
+        <v>250680.9054201905</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.0839703534566</v>
+        <v>276.95567126702</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.3380623582892</v>
+        <v>378.9429678494213</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.8152718456029</v>
+        <v>342.7771828476674</v>
       </c>
       <c r="AD2" t="n">
-        <v>226083.9703534566</v>
+        <v>276955.6712670201</v>
       </c>
       <c r="AE2" t="n">
-        <v>309338.0623582892</v>
+        <v>378942.9678494213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.874145837488887e-06</v>
+        <v>4.683926874391776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.33658854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279815.2718456029</v>
+        <v>342777.1828476674</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.5249139541761</v>
+        <v>178.7136965110604</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.1136073781103</v>
+        <v>244.5239638581661</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.1104841477031</v>
+        <v>221.1869399391524</v>
       </c>
       <c r="AD2" t="n">
-        <v>145524.9139541761</v>
+        <v>178713.6965110604</v>
       </c>
       <c r="AE2" t="n">
-        <v>199113.6073781103</v>
+        <v>244523.9638581661</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.200619143073323e-06</v>
+        <v>6.205914090119621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>180110.4841477031</v>
+        <v>221186.9399391524</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.642475153173</v>
+        <v>175.6606655094652</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.1697274463548</v>
+        <v>240.3466721515637</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.5430025813628</v>
+        <v>217.408323090161</v>
       </c>
       <c r="AD3" t="n">
-        <v>142642.475153173</v>
+        <v>175660.6655094652</v>
       </c>
       <c r="AE3" t="n">
-        <v>195169.7274463548</v>
+        <v>240346.6721515637</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.287081624497235e-06</v>
+        <v>6.333652100507961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.477213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>176543.0025813628</v>
+        <v>217408.3230901611</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.5466409463259</v>
+        <v>242.1062142952869</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.0285175191248</v>
+        <v>331.2604033710061</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.9710590051105</v>
+        <v>299.645375400272</v>
       </c>
       <c r="AD2" t="n">
-        <v>199546.6409463259</v>
+        <v>242106.2142952869</v>
       </c>
       <c r="AE2" t="n">
-        <v>273028.5175191248</v>
+        <v>331260.4033710061</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.448492101161204e-06</v>
+        <v>5.007793379947009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>246971.0590051105</v>
+        <v>299645.375400272</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1877745993679</v>
+        <v>171.7748126300385</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.0205625562091</v>
+        <v>235.0298768102049</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.930880796524</v>
+        <v>212.5989552340107</v>
       </c>
       <c r="AD3" t="n">
-        <v>146187.7745993679</v>
+        <v>171774.8126300385</v>
       </c>
       <c r="AE3" t="n">
-        <v>200020.5625562091</v>
+        <v>235029.8768102049</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.293628883025312e-06</v>
+        <v>6.235074828538315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.194010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180930.880796524</v>
+        <v>212598.9552340107</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.7029973934642</v>
+        <v>356.7439731258142</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.4891541786197</v>
+        <v>488.1128424640714</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.2670313938697</v>
+        <v>441.5280378499767</v>
       </c>
       <c r="AD2" t="n">
-        <v>292702.9973934642</v>
+        <v>356743.9731258142</v>
       </c>
       <c r="AE2" t="n">
-        <v>400489.1541786197</v>
+        <v>488112.8424640714</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.259451690735459e-06</v>
+        <v>3.766371352489286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.568359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>362267.0313938697</v>
+        <v>441528.0378499767</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.1997915077637</v>
+        <v>181.8847040650062</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.5099810879676</v>
+        <v>248.8626762884525</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.8963969280605</v>
+        <v>225.1115717445147</v>
       </c>
       <c r="AD2" t="n">
-        <v>150199.7915077637</v>
+        <v>181884.7040650062</v>
       </c>
       <c r="AE2" t="n">
-        <v>205509.9810879676</v>
+        <v>248862.6762884525</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.096654970375819e-06</v>
+        <v>6.234726326324658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.304036458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>185896.3969280605</v>
+        <v>225111.5717445147</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.5141594249793</v>
+        <v>174.1790440371036</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.6259160892642</v>
+        <v>238.3194522885535</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.1465304134396</v>
+        <v>215.5745782456549</v>
       </c>
       <c r="AD2" t="n">
-        <v>141514.1594249793</v>
+        <v>174179.0440371036</v>
       </c>
       <c r="AE2" t="n">
-        <v>193625.9160892642</v>
+        <v>238319.4522885535</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.242948835434237e-06</v>
+        <v>6.334343690605216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175146.5304134396</v>
+        <v>215574.5782456549</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.0387571285021</v>
+        <v>174.7036417406264</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.343693810841</v>
+        <v>239.0372300101303</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.7958044366767</v>
+        <v>216.223852268892</v>
       </c>
       <c r="AD3" t="n">
-        <v>142038.7571285021</v>
+        <v>174703.6417406264</v>
       </c>
       <c r="AE3" t="n">
-        <v>194343.693810841</v>
+        <v>239037.2300101303</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.241640742971869e-06</v>
+        <v>6.332390825379378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>175795.8044366767</v>
+        <v>216223.852268892</v>
       </c>
     </row>
   </sheetData>
